--- a/biology/Zoologie/Elgaria_kingii/Elgaria_kingii.xlsx
+++ b/biology/Zoologie/Elgaria_kingii/Elgaria_kingii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elgaria kingii est une espèce de sauriens de la famille des Anguidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elgaria kingii est une espèce de sauriens de la famille des Anguidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontrent en Arizona et au Nouveau-Mexique aux États-Unis et au Sonora, au Chihuahua, au Durango, au Sinaloa, au Colima et en Aguascalientes au Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontrent en Arizona et au Nouveau-Mexique aux États-Unis et au Sonora, au Chihuahua, au Durango, au Sinaloa, au Colima et en Aguascalientes au Mexique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (30 mai 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (30 mai 2012) :
 Elgaria kingii ferruginea Webb, 1962
 Elgaria kingii kingii Gray, 1838
 Elgaria kingii nobilis Baird &amp; Girard, 1852</t>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Philip Parker King[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Philip Parker King.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Baird &amp; Girard, 1852 : Descriptions of new species of reptiles, collected by the U.S. Exploring Expedition under the command of Capt. Charles Wilkes, U.S.N. First part — Including the species from the western coast of America. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 6, p. 174-177 (texte intégral).
 Gray, 1838 : Catalogue of the slender-tongued saurians, with descriptions of many new genera and species. Annals and Magazine of Natural History, sér. 1, vol. 1, p. 274-283, 388-394 (texte intégral).
